--- a/Equations of Cutting Forces and Calculations .xlsx
+++ b/Equations of Cutting Forces and Calculations .xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M228544\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M228544\Documents\GitHub\CNC-Lathe-Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -253,15 +253,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
@@ -282,6 +273,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1728,7 +1728,7 @@
   <dimension ref="A6:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1745,108 +1745,108 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="3"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="3">
         <v>2100</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="3">
         <v>8</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="3">
         <v>0.8</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="4">
         <v>0.85</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
       <c r="F16" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="4">
         <v>0.8</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="3" t="e">
         <f>D7/D11</f>
         <v>#DIV/0!</v>
@@ -1856,44 +1856,44 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="3">
         <f>D8*F15</f>
         <v>1785</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="3">
         <f>F16*D20</f>
         <v>1785</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="5">
         <f>F17*D21</f>
         <v>1428</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
       <c r="D24" s="6">
         <f>D22*D9*D10</f>
         <v>9139.2000000000007</v>
@@ -1901,6 +1901,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A19:C19"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A11:C11"/>
@@ -1908,13 +1915,6 @@
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A19:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
